--- a/biology/Biochimie/O-1918/O-1918.xlsx
+++ b/biology/Biochimie/O-1918/O-1918.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-O-1918 est un composé synthétique lié au cannabidiol, qui est un antagoniste de deux anciens récepteurs orphelins GPR18 et GPR55, qui semblent être liés aux récepteurs cannabinoïdes. O-1918 est utilisé dans l'étude de ces récepteurs, qui se sont avérés être des cibles pour un certain nombre de composés cannabinoïdes endogènes et synthétiques, et sont considérés comme responsables de la plupart des effets médiés non-CB 1, non-CB 2 qui sont devenus évidents au cours de la recherche sur les cannabinoïdes[1],[2],[3],[4],[5].
+O-1918 est un composé synthétique lié au cannabidiol, qui est un antagoniste de deux anciens récepteurs orphelins GPR18 et GPR55, qui semblent être liés aux récepteurs cannabinoïdes. O-1918 est utilisé dans l'étude de ces récepteurs, qui se sont avérés être des cibles pour un certain nombre de composés cannabinoïdes endogènes et synthétiques, et sont considérés comme responsables de la plupart des effets médiés non-CB 1, non-CB 2 qui sont devenus évidents au cours de la recherche sur les cannabinoïdes.
 </t>
         </is>
       </c>
